--- a/extra/database/dataDictionary.xlsx
+++ b/extra/database/dataDictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="8820" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="1420" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="63">
   <si>
     <t>字段名称</t>
   </si>
@@ -336,6 +336,153 @@
     </rPh>
     <rPh sb="42" eb="43">
       <t>luo q</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bs_meta_data（元数据表）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          创建人：罗强</t>
+    </r>
+    <rPh sb="13" eb="14">
+      <t>yuan shu j</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>luo q</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>json_data</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>json格式数据</t>
+    <rPh sb="4" eb="5">
+      <t>ge s</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型（1个人简介）</t>
+    <rPh sb="0" eb="1">
+      <t>shu j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ge r</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jan j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_data</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <rPh sb="0" eb="1">
+      <t>fou</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>text文本数据</t>
+    <rPh sb="4" eb="5">
+      <t>wen b</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除（0未删除，1已删除）</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shan c</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shan c</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shan c</t>
     </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -801,6 +948,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,12 +991,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1137,71 +1284,71 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-      <c r="B4" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="30" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="27"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1228,7 +1375,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1402,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1282,7 +1429,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
@@ -1309,7 +1456,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
@@ -1336,7 +1483,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="6" t="s">
         <v>43</v>
       </c>
@@ -1363,7 +1510,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
@@ -1390,7 +1537,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
@@ -1418,71 +1565,71 @@
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17">
+      <c r="A17" s="19">
         <v>2</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="30" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="27"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
@@ -1509,7 +1656,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="6" t="s">
         <v>35</v>
       </c>
@@ -1536,7 +1683,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
@@ -1563,7 +1710,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="18"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="6" t="s">
         <v>37</v>
       </c>
@@ -1590,7 +1737,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
@@ -1617,7 +1764,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="9" t="s">
         <v>16</v>
       </c>
@@ -1643,8 +1790,274 @@
         <v>19</v>
       </c>
     </row>
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="19">
+        <v>3</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="20"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
+    </row>
+    <row r="32" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="20"/>
+      <c r="B32" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="20"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="29"/>
+    </row>
+    <row r="34" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="20"/>
+      <c r="B34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="1">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="20"/>
+      <c r="B35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="20"/>
+      <c r="B36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="1">
+        <v>256</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="20"/>
+      <c r="B37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="20"/>
+      <c r="B38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="20"/>
+      <c r="B39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1">
+        <v>11</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="10">
+        <v>11</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="30">
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="B30:I31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
@@ -1661,10 +2074,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/extra/database/dataDictionary.xlsx
+++ b/extra/database/dataDictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="1320" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="83">
   <si>
     <t>字段名称</t>
   </si>
@@ -483,6 +483,205 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>shan c</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bs_menu（导航菜单表）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          创建人：罗强</t>
+    </r>
+    <rPh sb="8" eb="9">
+      <t>dao h</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cai d</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>luo q</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>父级ID</t>
+    <rPh sb="0" eb="1">
+      <t>fu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty String</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名称</t>
+    <rPh sb="0" eb="1">
+      <t>cai d</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming c</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序权重</t>
+    <rPh sb="0" eb="1">
+      <t>pai x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan z</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bs_node（节点表）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          创建人：罗强</t>
+    </r>
+    <rPh sb="8" eb="9">
+      <t>jie d</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>luo q</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="1">
+      <t>ming c</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>node</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点</t>
+    <rPh sb="0" eb="1">
+      <t>jie d</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态（0禁用，1正常）</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang t</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin y</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zheng c</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否菜单（0否，1是）</t>
+    <rPh sb="0" eb="1">
+      <t>shi f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cai d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>组（即节点所属菜单）</t>
+    <rPh sb="0" eb="1">
+      <t>zu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>suo s</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cai d</t>
     </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -954,6 +1153,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -985,12 +1190,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1268,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:E33"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1284,34 +1483,34 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -1332,23 +1531,23 @@
       <c r="H4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1375,7 +1574,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
@@ -1394,15 +1593,15 @@
       <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
+      <c r="H7" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1429,7 +1628,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
@@ -1448,15 +1647,15 @@
       <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="1">
-        <v>0</v>
+      <c r="H9" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
@@ -1475,15 +1674,15 @@
       <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="1">
-        <v>0</v>
+      <c r="H10" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
         <v>43</v>
       </c>
@@ -1510,7 +1709,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
@@ -1537,7 +1736,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
@@ -1565,34 +1764,34 @@
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19">
+      <c r="A17" s="21">
         <v>2</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
     </row>
     <row r="18" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
     </row>
     <row r="19" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -1613,23 +1812,23 @@
       <c r="H19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="I19" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="29"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
@@ -1656,7 +1855,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="6" t="s">
         <v>35</v>
       </c>
@@ -1683,7 +1882,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
@@ -1702,15 +1901,15 @@
       <c r="G23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="1">
-        <v>0</v>
+      <c r="H23" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="20"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="6" t="s">
         <v>37</v>
       </c>
@@ -1729,15 +1928,15 @@
       <c r="G24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="1">
-        <v>0</v>
+      <c r="H24" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="20"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
@@ -1764,7 +1963,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="9" t="s">
         <v>16</v>
       </c>
@@ -1792,34 +1991,34 @@
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="19">
+      <c r="A30" s="21">
         <v>3</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="20"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
     </row>
     <row r="32" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="20"/>
-      <c r="B32" s="30" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -1840,23 +2039,23 @@
       <c r="H32" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="28" t="s">
+      <c r="I32" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="20"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
-      <c r="I33" s="29"/>
+      <c r="I33" s="31"/>
     </row>
     <row r="34" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="20"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="6" t="s">
         <v>47</v>
       </c>
@@ -1883,7 +2082,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="20"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="6" t="s">
         <v>50</v>
       </c>
@@ -1910,7 +2109,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="20"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="6" t="s">
         <v>48</v>
       </c>
@@ -1929,15 +2128,15 @@
       <c r="G36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="1">
-        <v>0</v>
+      <c r="H36" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I36" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="20"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="6" t="s">
         <v>54</v>
       </c>
@@ -1962,7 +2161,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="20"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="6" t="s">
         <v>60</v>
       </c>
@@ -1989,7 +2188,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="20"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="8" t="s">
         <v>11</v>
       </c>
@@ -2016,7 +2215,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="9" t="s">
         <v>16</v>
       </c>
@@ -2042,8 +2241,631 @@
         <v>19</v>
       </c>
     </row>
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="21">
+        <v>4</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="26"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="22"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="29"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="22"/>
+      <c r="B46" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="22"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="31"/>
+    </row>
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A48" s="22"/>
+      <c r="B48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="1">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A49" s="22"/>
+      <c r="B49" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="1">
+        <v>32</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A50" s="22"/>
+      <c r="B50" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="1">
+        <v>11</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A51" s="22"/>
+      <c r="B51" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A52" s="22"/>
+      <c r="B52" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A53" s="22"/>
+      <c r="B53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1">
+        <v>11</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
+      <c r="B54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="10">
+        <v>11</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="10">
+        <v>0</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="21">
+        <v>5</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="26"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="22"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="29"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="22"/>
+      <c r="B60" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="22"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="31"/>
+    </row>
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A62" s="22"/>
+      <c r="B62" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="1">
+        <v>11</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A63" s="22"/>
+      <c r="B63" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="1">
+        <v>32</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A64" s="22"/>
+      <c r="B64" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" s="1">
+        <v>32</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A65" s="22"/>
+      <c r="B65" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A66" s="22"/>
+      <c r="B66" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A67" s="22"/>
+      <c r="B67" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="1">
+        <v>11</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A68" s="22"/>
+      <c r="B68" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="1">
+        <v>11</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A69" s="22"/>
+      <c r="B69" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A70" s="22"/>
+      <c r="B70" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="1">
+        <v>11</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="23"/>
+      <c r="B71" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="10">
+        <v>11</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="10">
+        <v>0</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="50">
+    <mergeCell ref="A58:A71"/>
+    <mergeCell ref="B58:I59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="B44:I45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="B17:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
@@ -2060,20 +2882,6 @@
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="B17:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B2:I3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/extra/database/dataDictionary.xlsx
+++ b/extra/database/dataDictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="94">
   <si>
     <t>字段名称</t>
   </si>
@@ -685,12 +685,167 @@
     </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bs_role（角色表）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          创建人：罗强</t>
+    </r>
+    <rPh sb="8" eb="9">
+      <t>jue s</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>luo q</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bs_role_node（角色节点关联表）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          创建人：罗强</t>
+    </r>
+    <rPh sb="13" eb="14">
+      <t>jue s</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie d</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>guan l</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>luo q</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <rPh sb="0" eb="1">
+      <t>jue s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming c</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>node_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <rPh sb="0" eb="1">
+      <t>jue s</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点ID</t>
+    <rPh sb="0" eb="1">
+      <t>jie d</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bs_account_role（账号角色关联表）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          创建人：罗强</t>
+    </r>
+    <rPh sb="16" eb="17">
+      <t>zhang h</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jue s</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>guan l</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>luo q</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号ID</t>
+    <rPh sb="0" eb="1">
+      <t>zhang h</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,6 +960,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1090,12 +1261,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1147,54 +1336,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1467,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1483,52 +1687,52 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="28" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="30" t="s">
@@ -1536,18 +1740,18 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1574,7 +1778,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
@@ -1601,7 +1805,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1628,7 +1832,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
@@ -1655,7 +1859,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
@@ -1682,7 +1886,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="6" t="s">
         <v>43</v>
       </c>
@@ -1709,7 +1913,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
@@ -1736,7 +1940,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
@@ -1764,52 +1968,52 @@
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21">
+      <c r="A17" s="17">
         <v>2</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
-      <c r="B19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="17" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="I19" s="30" t="s">
@@ -1817,18 +2021,18 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
@@ -1855,7 +2059,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="6" t="s">
         <v>35</v>
       </c>
@@ -1882,7 +2086,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
@@ -1909,7 +2113,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="6" t="s">
         <v>37</v>
       </c>
@@ -1936,7 +2140,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
@@ -1963,7 +2167,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="9" t="s">
         <v>16</v>
       </c>
@@ -1991,52 +2195,52 @@
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="21">
+      <c r="A30" s="17">
         <v>3</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="22"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="22"/>
-      <c r="B32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="17" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="28" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="30" t="s">
@@ -2044,18 +2248,18 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="22"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="31"/>
     </row>
     <row r="34" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="22"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="6" t="s">
         <v>47</v>
       </c>
@@ -2082,7 +2286,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="22"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="6" t="s">
         <v>50</v>
       </c>
@@ -2109,7 +2313,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="22"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="6" t="s">
         <v>48</v>
       </c>
@@ -2136,7 +2340,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="22"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="6" t="s">
         <v>54</v>
       </c>
@@ -2161,7 +2365,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="22"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="6" t="s">
         <v>60</v>
       </c>
@@ -2188,7 +2392,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="22"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="8" t="s">
         <v>11</v>
       </c>
@@ -2215,7 +2419,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="9" t="s">
         <v>16</v>
       </c>
@@ -2243,52 +2447,52 @@
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="21">
+      <c r="A44" s="17">
         <v>4</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="26"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="22"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="22"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="29"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="22"/>
-      <c r="B46" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="17" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H46" s="28" t="s">
         <v>5</v>
       </c>
       <c r="I46" s="30" t="s">
@@ -2296,18 +2500,18 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="22"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
       <c r="I47" s="31"/>
     </row>
     <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="A48" s="22"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="6" t="s">
         <v>47</v>
       </c>
@@ -2334,7 +2538,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="A49" s="22"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="6" t="s">
         <v>67</v>
       </c>
@@ -2361,7 +2565,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="A50" s="22"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="6" t="s">
         <v>65</v>
       </c>
@@ -2388,7 +2592,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="A51" s="22"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="6" t="s">
         <v>70</v>
       </c>
@@ -2415,7 +2619,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="A52" s="22"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="6" t="s">
         <v>60</v>
       </c>
@@ -2442,7 +2646,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="A53" s="22"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="8" t="s">
         <v>11</v>
       </c>
@@ -2469,7 +2673,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
+      <c r="A54" s="19"/>
       <c r="B54" s="9" t="s">
         <v>16</v>
       </c>
@@ -2497,52 +2701,52 @@
     </row>
     <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="21">
+      <c r="A58" s="17">
         <v>5</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="26"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="22"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="22"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="29"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="25"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="22"/>
-      <c r="B60" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="17" t="s">
+      <c r="A60" s="18"/>
+      <c r="B60" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="17" t="s">
+      <c r="F60" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="17" t="s">
+      <c r="G60" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H60" s="17" t="s">
+      <c r="H60" s="28" t="s">
         <v>5</v>
       </c>
       <c r="I60" s="30" t="s">
@@ -2550,18 +2754,18 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="22"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
       <c r="I61" s="31"/>
     </row>
     <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="A62" s="22"/>
+      <c r="A62" s="18"/>
       <c r="B62" s="6" t="s">
         <v>47</v>
       </c>
@@ -2588,7 +2792,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="A63" s="22"/>
+      <c r="A63" s="18"/>
       <c r="B63" s="6" t="s">
         <v>67</v>
       </c>
@@ -2615,7 +2819,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="A64" s="22"/>
+      <c r="A64" s="18"/>
       <c r="B64" s="6" t="s">
         <v>75</v>
       </c>
@@ -2642,7 +2846,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="A65" s="22"/>
+      <c r="A65" s="18"/>
       <c r="B65" s="6" t="s">
         <v>77</v>
       </c>
@@ -2669,7 +2873,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="A66" s="22"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="6" t="s">
         <v>79</v>
       </c>
@@ -2696,7 +2900,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="A67" s="22"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="6" t="s">
         <v>81</v>
       </c>
@@ -2723,7 +2927,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="A68" s="22"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="6" t="s">
         <v>65</v>
       </c>
@@ -2750,7 +2954,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="A69" s="22"/>
+      <c r="A69" s="18"/>
       <c r="B69" s="6" t="s">
         <v>60</v>
       </c>
@@ -2777,7 +2981,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="A70" s="22"/>
+      <c r="A70" s="18"/>
       <c r="B70" s="8" t="s">
         <v>11</v>
       </c>
@@ -2804,7 +3008,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="23"/>
+      <c r="A71" s="19"/>
       <c r="B71" s="9" t="s">
         <v>16</v>
       </c>
@@ -2830,8 +3034,537 @@
         <v>19</v>
       </c>
     </row>
+    <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" s="17">
+        <v>6</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="22"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76" s="18"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="25"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" s="18"/>
+      <c r="B77" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H77" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I77" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78" s="18"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="31"/>
+    </row>
+    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A79" s="18"/>
+      <c r="B79" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="1">
+        <v>11</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A80" s="18"/>
+      <c r="B80" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" s="1">
+        <v>32</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A81" s="18"/>
+      <c r="B81" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A82" s="18"/>
+      <c r="B82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A83" s="18"/>
+      <c r="B83" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="1">
+        <v>11</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="19"/>
+      <c r="B84" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="10">
+        <v>11</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="10">
+        <v>0</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88" s="17">
+        <v>7</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="22"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89" s="18"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="25"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" s="18"/>
+      <c r="B90" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H90" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I90" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91" s="18"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="31"/>
+    </row>
+    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A92" s="18"/>
+      <c r="B92" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D92" s="1">
+        <v>11</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A93" s="18"/>
+      <c r="B93" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="1">
+        <v>11</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="19"/>
+      <c r="B94" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="10">
+        <v>11</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="10">
+        <v>0</v>
+      </c>
+      <c r="I94" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98" s="17">
+        <v>8</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="22"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99" s="18"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="25"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A100" s="18"/>
+      <c r="B100" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A101" s="18"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="31"/>
+    </row>
+    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A102" s="18"/>
+      <c r="B102" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D102" s="1">
+        <v>11</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A103" s="18"/>
+      <c r="B103" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="1">
+        <v>11</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="19"/>
+      <c r="B104" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D104" s="10">
+        <v>11</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104" s="10">
+        <v>0</v>
+      </c>
+      <c r="I104" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="80">
+    <mergeCell ref="A98:A104"/>
+    <mergeCell ref="B98:I99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
     <mergeCell ref="A58:A71"/>
     <mergeCell ref="B58:I59"/>
     <mergeCell ref="B60:B61"/>
@@ -2852,7 +3585,6 @@
     <mergeCell ref="G46:G47"/>
     <mergeCell ref="H46:H47"/>
     <mergeCell ref="I46:I47"/>
-    <mergeCell ref="G19:G20"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A17:A26"/>
     <mergeCell ref="B17:I18"/>
@@ -2882,6 +3614,27 @@
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A75:A84"/>
+    <mergeCell ref="B75:I76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="B88:I89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="I90:I91"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
